--- a/realme/June/All Details/24.06.2021/realme Bank Statement June-2021-.xlsx
+++ b/realme/June/All Details/24.06.2021/realme Bank Statement June-2021-.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>21.06.2021</t>
-  </si>
-  <si>
-    <t>Dighi Telecom</t>
   </si>
   <si>
     <t>Sabbir SS + Sarthok Boss</t>
@@ -3124,7 +3121,7 @@
   <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3580,7 +3577,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="22">
         <v>800000</v>
@@ -3599,7 +3596,7 @@
     <row r="27" spans="1:9">
       <c r="A27" s="18"/>
       <c r="B27" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="22">
         <v>0</v>
@@ -3618,7 +3615,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="18"/>
       <c r="B28" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="22">
         <v>647000</v>
@@ -5193,7 +5190,7 @@
     </row>
     <row r="24" spans="1:25" s="10" customFormat="1">
       <c r="A24" s="144" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="152">
         <v>500</v>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="25" spans="1:25" s="160" customFormat="1">
       <c r="A25" s="144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="152"/>
       <c r="C25" s="145"/>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1">
       <c r="A26" s="144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="152"/>
       <c r="C26" s="145"/>
@@ -7668,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9653,11 +9650,13 @@
     <row r="30" spans="1:61">
       <c r="A30" s="52"/>
       <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
+      <c r="C30" s="53">
+        <v>-176430</v>
+      </c>
       <c r="D30" s="53"/>
       <c r="E30" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-176430</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="67"/>
@@ -9721,13 +9720,11 @@
     <row r="31" spans="1:61">
       <c r="A31" s="52"/>
       <c r="B31" s="53"/>
-      <c r="C31" s="53">
-        <v>-226430</v>
-      </c>
+      <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="53">
         <f t="shared" si="0"/>
-        <v>-226430</v>
+        <v>0</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="70"/>
@@ -9864,7 +9861,7 @@
       </c>
       <c r="C33" s="53">
         <f>SUM(C5:C32)</f>
-        <v>-226430</v>
+        <v>-176430</v>
       </c>
       <c r="D33" s="53">
         <f>SUM(D5:D32)</f>
@@ -9872,11 +9869,11 @@
       </c>
       <c r="E33" s="53">
         <f>SUM(E5:E32)</f>
-        <v>-226430</v>
+        <v>-176430</v>
       </c>
       <c r="F33" s="53">
         <f>B33-E33</f>
-        <v>226430</v>
+        <v>176430</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="198"/>
@@ -10204,7 +10201,7 @@
         <v>131270</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="57"/>
       <c r="F38" s="53"/>
@@ -10269,7 +10266,7 @@
         <v>57</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="53">
         <v>25890</v>
@@ -10336,16 +10333,10 @@
       <c r="BI39" s="191"/>
     </row>
     <row r="40" spans="1:61">
-      <c r="A40" s="99" t="s">
-        <v>86</v>
-      </c>
+      <c r="A40" s="99"/>
       <c r="B40" s="49"/>
-      <c r="C40" s="53">
-        <v>50000</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>62</v>
-      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="57"/>
       <c r="F40" s="49"/>
       <c r="G40" s="77"/>
@@ -10406,10 +10397,10 @@
     </row>
     <row r="41" spans="1:61">
       <c r="A41" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="53">
         <v>19270</v>
@@ -15090,7 +15081,7 @@
       <c r="B113" s="263"/>
       <c r="C113" s="110">
         <f>SUM(C37:C112)</f>
-        <v>226430</v>
+        <v>176430</v>
       </c>
       <c r="D113" s="111"/>
       <c r="F113" s="103"/>
@@ -15225,7 +15216,7 @@
       <c r="B115" s="265"/>
       <c r="C115" s="115">
         <f>C113+L136</f>
-        <v>226430</v>
+        <v>176430</v>
       </c>
       <c r="D115" s="116"/>
       <c r="F115" s="98"/>
@@ -17801,8 +17792,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17845,7 +17836,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="280" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="281"/>
       <c r="C3" s="281"/>
@@ -17919,7 +17910,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="42">
-        <v>4131900</v>
+        <v>4192900</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="33"/>
@@ -17995,7 +17986,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="183">
-        <v>5564</v>
+        <v>34564</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="33"/>
@@ -18069,7 +18060,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="42">
-        <v>226430</v>
+        <v>176430</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="33"/>
@@ -18109,7 +18100,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="42">
-        <v>60630</v>
+        <v>20630</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="33"/>
@@ -18177,7 +18168,7 @@
     </row>
     <row r="12" spans="1:29" ht="21.75">
       <c r="A12" s="207" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="208">
         <v>350000</v>
